--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2ac4666dbaa6441e/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miale\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22F1BE0D-2AF8-480D-8D42-59F6A627601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50BD0FFC-E638-492E-9165-6B170280F6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" xr2:uid="{C09A50FB-D43E-4CE6-A5C8-020094FFC8C3}"/>
+    <workbookView xWindow="2846" yWindow="2846" windowWidth="16457" windowHeight="8965" xr2:uid="{C09A50FB-D43E-4CE6-A5C8-020094FFC8C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>FULL NAME</t>
-  </si>
-  <si>
-    <t>ID NUMBER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>USERNAME</t>
   </si>
@@ -50,22 +42,34 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>CAR FUEL TYPE</t>
-  </si>
-  <si>
-    <t>CAR TYPE</t>
-  </si>
-  <si>
     <t>DISTANCE</t>
   </si>
   <si>
-    <t>GAS ACCOUNT PAYMENT</t>
-  </si>
-  <si>
-    <t>WATER ACCOUNT PAYMENT</t>
-  </si>
-  <si>
-    <t>ELECTRICAL ACCOUNT PAYMENT</t>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>CARBON_FOOT_PRINT</t>
+  </si>
+  <si>
+    <t>CAR_TYPE</t>
+  </si>
+  <si>
+    <t>CAR_FUEL_TYPE</t>
+  </si>
+  <si>
+    <t>GAS_ACCOUNT_PAYMENT</t>
+  </si>
+  <si>
+    <t>WATER ACCOUNT_PAYMENT</t>
+  </si>
+  <si>
+    <t>ELECTRICAL_ACCOUNT_PAYMENT</t>
+  </si>
+  <si>
+    <t>ID_NUMBER</t>
+  </si>
+  <si>
+    <t>FULL_NAME</t>
   </si>
 </sst>
 </file>
@@ -428,26 +432,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9F5EC-F7A1-4BF3-9C37-B0B30932BE5D}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
@@ -459,17 +463,28 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>